--- a/bug记录.xlsx
+++ b/bug记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>bug编号</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>显示三个，增加显示全部功能</t>
+  </si>
+  <si>
+    <t>是否解决</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -390,22 +399,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -416,13 +426,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -432,8 +445,11 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -443,8 +459,11 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -454,11 +473,14 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
         <v>42741</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -468,7 +490,10 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
